--- a/DestroyViruses/Assets/Tables/TableVirus.xlsx
+++ b/DestroyViruses/Assets/Tables/TableVirus.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\DestroyViruses\DestroyViruses\Assets\Config\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14865"/>
+    <workbookView windowWidth="30390" windowHeight="17070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -29,107 +24,46 @@
     <t>type</t>
   </si>
   <si>
+    <t>skillCD</t>
+  </si>
+  <si>
+    <t>effect1</t>
+  </si>
+  <si>
+    <t>effect2</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
     <t>virus type</t>
   </si>
   <si>
-    <t>三角病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>躲避病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变速病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治愈病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>追踪病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆炸病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吞噬病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸附病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>减速病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>膨胀病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞镖病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再生病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸血病毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Virus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Triangle</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Virus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dodge</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VirusSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>skill触发间隔</t>
+  </si>
+  <si>
+    <t>技能效果是数值1</t>
+  </si>
+  <si>
+    <t>效果描述1</t>
+  </si>
+  <si>
+    <t>技能效果数值2</t>
+  </si>
+  <si>
+    <t>效果描述2</t>
+  </si>
+  <si>
+    <t>版本1 开启</t>
   </si>
   <si>
     <r>
@@ -147,21 +81,32 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Cure</t>
+      <t>Triangle</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VirusTrack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VirusBomb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通病毒</t>
+  </si>
+  <si>
+    <t>VirusDodge</t>
+  </si>
+  <si>
+    <t>躲避病毒</t>
+  </si>
+  <si>
+    <t>VirusSpeed</t>
+  </si>
+  <si>
+    <t>变速病毒</t>
+  </si>
+  <si>
+    <t>加速倍率</t>
+  </si>
+  <si>
+    <t>持续时间</t>
   </si>
   <si>
     <r>
@@ -179,21 +124,35 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Swallow</t>
+      <t>Cure</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VirusAttach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VirusSlower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈病毒</t>
+  </si>
+  <si>
+    <t>每秒回血最大生命百分比</t>
+  </si>
+  <si>
+    <t>触发距离</t>
+  </si>
+  <si>
+    <t>VirusTrack</t>
+  </si>
+  <si>
+    <t>追踪病毒</t>
+  </si>
+  <si>
+    <t>VirusBomb</t>
+  </si>
+  <si>
+    <t>爆炸病毒</t>
+  </si>
+  <si>
+    <t>爆炸半径</t>
   </si>
   <si>
     <r>
@@ -211,17 +170,32 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Expand</t>
+      <t>Swallow</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VirusDart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吞噬病毒</t>
+  </si>
+  <si>
+    <t>吞噬时间</t>
+  </si>
+  <si>
+    <t>VirusAttach</t>
+  </si>
+  <si>
+    <t>吸附病毒</t>
+  </si>
+  <si>
+    <t>VirusSlower</t>
+  </si>
+  <si>
+    <t>减速病毒</t>
+  </si>
+  <si>
+    <t>减速效果</t>
   </si>
   <si>
     <r>
@@ -239,28 +213,85 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expand</t>
+    </r>
+  </si>
+  <si>
+    <t>膨胀病毒</t>
+  </si>
+  <si>
+    <t>膨胀倍率</t>
+  </si>
+  <si>
+    <t>VirusDart</t>
+  </si>
+  <si>
+    <t>飞镖病毒</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Virus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Recover</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VirusInvincible</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再生病毒</t>
+  </si>
+  <si>
+    <t>恢复效果</t>
+  </si>
+  <si>
+    <t>VirusDefense</t>
+  </si>
+  <si>
+    <t>防御病毒</t>
   </si>
   <si>
     <t>VirusVampire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血病毒</t>
+  </si>
+  <si>
+    <t>每秒吸血百分比</t>
+  </si>
+  <si>
+    <t>VirusCollider</t>
+  </si>
+  <si>
+    <t>碰撞病毒</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,29 +300,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -299,25 +646,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -366,7 +999,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,7 +1034,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -604,230 +1237,418 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="23.375" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0.2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7">
+        <v>200</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>1.5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <v>200</v>
+      </c>
+      <c r="H12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0.2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
+      </c>
+      <c r="E17">
+        <v>0.2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17">
+        <v>200</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DestroyViruses/Assets/Tables/TableVirus.xlsx
+++ b/DestroyViruses/Assets/Tables/TableVirus.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yinlong/Documents/github/DestroyViruses/DestroyViruses/Assets/Tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="30390" windowHeight="17070"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -43,9 +56,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>virus type</t>
   </si>
   <si>
     <t>skill触发间隔</t>
@@ -280,18 +290,22 @@
   <si>
     <t>碰撞病毒</t>
   </si>
+  <si>
+    <t>virus type（程序使用）</t>
+    <rPh sb="11" eb="12">
+      <t>ceng'xu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi'yong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,345 +314,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -646,307 +336,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1237,30 +638,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="23.375" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1277,7 +678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1294,66 +695,66 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1362,27 +763,27 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
         <v>22</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
       <c r="I6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1391,55 +792,55 @@
         <v>0.2</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>200</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E9">
         <v>1.5</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1448,58 +849,58 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E12">
         <v>0.5</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <v>200</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -1508,38 +909,38 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13">
         <v>0.5</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1548,21 +949,21 @@
         <v>0.2</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -1571,84 +972,78 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E17">
         <v>0.2</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17">
         <v>200</v>
       </c>
       <c r="H17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
         <v>54</v>
       </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
       <c r="I18">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/DestroyViruses/Assets/Tables/TableVirus.xlsx
+++ b/DestroyViruses/Assets/Tables/TableVirus.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yinlong/Documents/github/DestroyViruses/DestroyViruses/Assets/Tables/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17080"/>
+    <workbookView windowWidth="27510" windowHeight="13905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,14 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -58,6 +45,9 @@
     <t>ID</t>
   </si>
   <si>
+    <t>virus type（程序使用）</t>
+  </si>
+  <si>
     <t>skill触发间隔</t>
   </si>
   <si>
@@ -76,26 +66,7 @@
     <t>版本1 开启</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Virus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Triangle</t>
-    </r>
+    <t>VirusTriangle</t>
   </si>
   <si>
     <t>普通病毒</t>
@@ -119,26 +90,7 @@
     <t>持续时间</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Virus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cure</t>
-    </r>
+    <t>VirusCure</t>
   </si>
   <si>
     <t>治愈病毒</t>
@@ -165,26 +117,7 @@
     <t>爆炸半径</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Virus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Swallow</t>
-    </r>
+    <t>VirusSwallow</t>
   </si>
   <si>
     <t>吞噬病毒</t>
@@ -208,26 +141,7 @@
     <t>减速效果</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Virus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Expand</t>
-    </r>
+    <t>VirusExpand</t>
   </si>
   <si>
     <t>膨胀病毒</t>
@@ -242,26 +156,7 @@
     <t>飞镖病毒</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Virus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Recover</t>
-    </r>
+    <t>VirusRecover</t>
   </si>
   <si>
     <t>再生病毒</t>
@@ -289,23 +184,19 @@
   </si>
   <si>
     <t>碰撞病毒</t>
-  </si>
-  <si>
-    <t>virus type（程序使用）</t>
-    <rPh sb="11" eb="12">
-      <t>ceng'xu</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>shi'yong</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,21 +205,351 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -336,18 +557,307 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -638,412 +1148,421 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F11" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="23.6666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="13.1666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1">
+        <v>200</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="1">
+        <v>200</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="1">
+        <v>200</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="I18" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0.2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7">
-        <v>200</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>1.5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12">
-        <v>0.5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12">
-        <v>200</v>
-      </c>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13">
-        <v>0.5</v>
-      </c>
-      <c r="H13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0.2</v>
-      </c>
-      <c r="F15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17">
-        <v>0.2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17">
-        <v>200</v>
-      </c>
-      <c r="H17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DestroyViruses/Assets/Tables/TableVirus.xlsx
+++ b/DestroyViruses/Assets/Tables/TableVirus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27510" windowHeight="13905"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,8 +193,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -218,6 +218,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -226,7 +263,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,52 +347,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -293,67 +354,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -364,97 +364,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,85 +526,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,26 +558,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,10 +590,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -611,8 +600,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,23 +650,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,10 +661,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,133 +673,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1157,7 +1157,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1308,7 +1308,7 @@
         <v>26</v>
       </c>
       <c r="G7" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>27</v>
@@ -1356,7 +1356,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1">
         <v>5</v>
@@ -1390,13 +1390,13 @@
         <v>39</v>
       </c>
       <c r="E12" s="1">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G12" s="1">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>27</v>
@@ -1416,10 +1416,10 @@
         <v>42</v>
       </c>
       <c r="D13" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>43</v>
@@ -1459,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>48</v>

--- a/DestroyViruses/Assets/Tables/TableVirus.xlsx
+++ b/DestroyViruses/Assets/Tables/TableVirus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="26415" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
   <si>
     <t>id</t>
   </si>
@@ -24,6 +24,15 @@
     <t>type</t>
   </si>
   <si>
+    <t>nameID</t>
+  </si>
+  <si>
+    <t>descriptionID</t>
+  </si>
+  <si>
+    <t>tipsID</t>
+  </si>
+  <si>
     <t>skillCD</t>
   </si>
   <si>
@@ -48,6 +57,9 @@
     <t>virus type（程序使用）</t>
   </si>
   <si>
+    <t>多语言</t>
+  </si>
+  <si>
     <t>skill触发间隔</t>
   </si>
   <si>
@@ -70,6 +82,12 @@
   </si>
   <si>
     <t>普通病毒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">描述文本测试 描述文本测试 描述文本测试 描述文本测试 描述文本测试 描述文本测试 描述文本测试 描述文本测试 描述文本测试 描述文本测试 </t>
+  </si>
+  <si>
+    <t>tips测试tips测试，tips测试</t>
   </si>
   <si>
     <t>VirusDodge</t>
@@ -191,9 +209,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -218,6 +236,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -226,10 +266,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,8 +320,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,102 +360,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -364,187 +382,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,6 +573,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -573,17 +606,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,37 +635,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,8 +668,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,10 +679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,133 +691,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1154,27 +1172,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="23.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="13.1666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1666666666667" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1187,344 +1207,506 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="1">
+      <c r="H6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1">
+        <v>31</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
+      <c r="H7" s="1">
         <v>0.2</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="1">
         <v>300</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="K7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1">
         <v>1.5</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>32</v>
+      <c r="I9" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="1">
+      <c r="H10" s="1">
         <v>5</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="I10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="1">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="1">
         <v>0.2</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="I12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="1">
         <v>300</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="K12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="1">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="1">
         <v>3</v>
       </c>
-      <c r="E13" s="1">
+      <c r="H13" s="1">
         <v>1.5</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="I13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="1">
         <v>0.5</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="K13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="1">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1">
+      <c r="H15" s="1">
         <v>0.05</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="I15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="1">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3</v>
+        <v>56</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="1">
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+      <c r="H16" s="1">
+        <v>3</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="1">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="1">
         <v>0.2</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="I17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="1">
         <v>200</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>27</v>
+      <c r="K17" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="1">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="1">
         <v>1</v>
       </c>
     </row>

--- a/DestroyViruses/Assets/Tables/TableVirus.xlsx
+++ b/DestroyViruses/Assets/Tables/TableVirus.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -42,6 +42,9 @@
     <t>effect2</t>
   </si>
   <si>
+    <t>effect3</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -75,7 +78,10 @@
     <t>效果描述2</t>
   </si>
   <si>
-    <t>版本1 开启</t>
+    <t>技能效果数值3</t>
+  </si>
+  <si>
+    <t>效果描述3</t>
   </si>
   <si>
     <t>VirusTriangle</t>
@@ -118,6 +124,9 @@
   </si>
   <si>
     <t>触发距离</t>
+  </si>
+  <si>
+    <t>失效距离</t>
   </si>
   <si>
     <t>VirusTrack</t>
@@ -210,9 +219,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -229,6 +238,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -245,6 +300,53 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,56 +362,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,59 +381,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -382,6 +391,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -394,19 +469,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,151 +565,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,6 +582,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -610,7 +634,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,22 +654,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,10 +688,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,133 +700,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1172,10 +1181,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1190,11 +1199,11 @@
     <col min="9" max="9" width="23.3333333333333" style="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
     <col min="11" max="11" width="17.1666666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1219,89 +1228,95 @@
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1309,39 +1324,39 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -1350,36 +1365,33 @@
         <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -1388,16 +1400,19 @@
         <v>0.2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J7" s="1">
         <v>300</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>350</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1405,19 +1420,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1425,45 +1440,45 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1">
         <v>1.5</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1">
         <v>5</v>
@@ -1472,10 +1487,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1483,74 +1495,77 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1">
         <v>0.2</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J12" s="1">
         <v>300</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L12" s="1">
-        <v>1</v>
+        <v>350</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1">
         <v>3</v>
@@ -1559,16 +1574,13 @@
         <v>1.5</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J13" s="1">
         <v>0.5</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1576,39 +1588,39 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -1617,30 +1629,27 @@
         <v>0.05</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G16" s="1">
         <v>5</v>
@@ -1649,65 +1658,65 @@
         <v>3</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H17" s="1">
         <v>0.2</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J17" s="1">
         <v>200</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="L17" s="1">
+        <v>300</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableVirus.xlsx
+++ b/DestroyViruses/Assets/Tables/TableVirus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26415" windowHeight="11730"/>
+    <workbookView windowWidth="28720" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>id</t>
   </si>
@@ -90,10 +90,13 @@
     <t>普通病毒</t>
   </si>
   <si>
-    <t xml:space="preserve">描述文本测试 描述文本测试 描述文本测试 描述文本测试 描述文本测试 描述文本测试 描述文本测试 描述文本测试 描述文本测试 描述文本测试 </t>
-  </si>
-  <si>
-    <t>tips测试tips测试，tips测试</t>
+    <t>VIRUS_TRIANGLE_NAME</t>
+  </si>
+  <si>
+    <t>VIRUS_TRIANGLE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>VIRUS_TRIANGLE_TIPS</t>
   </si>
   <si>
     <t>VirusDodge</t>
@@ -218,10 +221,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -238,6 +241,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -246,15 +286,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,36 +342,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,70 +371,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,25 +394,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,156 +575,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,36 +585,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -634,18 +607,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,7 +616,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,157 +677,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -836,54 +839,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1179,26 +1182,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="23.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6634615384615" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="29.1634615384615" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.3653846153846" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.4423076923077" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1634615384615" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1634615384615" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.3365384615385" style="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1666666666667" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1634615384615" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
@@ -1310,13 +1314,13 @@
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1324,19 +1328,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1344,19 +1348,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -1365,13 +1369,13 @@
         <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1379,19 +1383,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -1400,19 +1404,19 @@
         <v>0.2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J7" s="1">
         <v>300</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="1">
         <v>350</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1420,19 +1424,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1440,25 +1444,25 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H9" s="1">
         <v>1.5</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1466,19 +1470,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1">
         <v>5</v>
@@ -1487,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1495,19 +1499,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1515,37 +1519,37 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="H12" s="1">
         <v>0.2</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J12" s="1">
         <v>300</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L12" s="1">
         <v>350</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1553,19 +1557,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1">
         <v>3</v>
@@ -1574,13 +1578,13 @@
         <v>1.5</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J13" s="1">
         <v>0.5</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1588,19 +1592,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1608,19 +1612,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -1629,7 +1633,7 @@
         <v>0.05</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1637,19 +1641,19 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G16" s="1">
         <v>5</v>
@@ -1658,7 +1662,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1666,37 +1670,37 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H17" s="1">
         <v>0.2</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J17" s="1">
         <v>200</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L17" s="1">
         <v>300</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1704,30 +1708,30 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1735,15 +1739,15 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1751,9 +1755,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/DestroyViruses/Assets/Tables/TableVirus.xlsx
+++ b/DestroyViruses/Assets/Tables/TableVirus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28720" windowHeight="13200"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="108">
   <si>
     <t>id</t>
   </si>
@@ -105,12 +105,30 @@
     <t>躲避病毒</t>
   </si>
   <si>
+    <t>Virus_Dodge_Name</t>
+  </si>
+  <si>
+    <t>Virus_Dodge_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Virus_Dodge_TIPS</t>
+  </si>
+  <si>
     <t>VirusSpeed</t>
   </si>
   <si>
     <t>变速病毒</t>
   </si>
   <si>
+    <t>Virus_Speed_Name</t>
+  </si>
+  <si>
+    <t>Virus_Speed_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Virus_Speed_TIPS</t>
+  </si>
+  <si>
     <t>加速倍率</t>
   </si>
   <si>
@@ -123,6 +141,15 @@
     <t>治愈病毒</t>
   </si>
   <si>
+    <t>Virus_Cure_Name</t>
+  </si>
+  <si>
+    <t>Virus_Cure_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Virus_Cure_TIPS</t>
+  </si>
+  <si>
     <t>每秒回血最大生命百分比</t>
   </si>
   <si>
@@ -138,12 +165,30 @@
     <t>追踪病毒</t>
   </si>
   <si>
+    <t>Virus_Track_Name</t>
+  </si>
+  <si>
+    <t>Virus_Track_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Virus_Track_TIPS</t>
+  </si>
+  <si>
     <t>VirusBomb</t>
   </si>
   <si>
     <t>爆炸病毒</t>
   </si>
   <si>
+    <t>Virus_Bomb_Name</t>
+  </si>
+  <si>
+    <t>Virus_Bomb_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Virus_Bomb_TIPS</t>
+  </si>
+  <si>
     <t>爆炸半径</t>
   </si>
   <si>
@@ -153,6 +198,15 @@
     <t>吞噬病毒</t>
   </si>
   <si>
+    <t>Virus_Swallow_Name</t>
+  </si>
+  <si>
+    <t>Virus_Swallow_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Virus_Swallow_TIPS</t>
+  </si>
+  <si>
     <t>吞噬时间</t>
   </si>
   <si>
@@ -162,12 +216,30 @@
     <t>吸附病毒</t>
   </si>
   <si>
+    <t>Virus_Attach_Name</t>
+  </si>
+  <si>
+    <t>Virus_Attach_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Virus_Attach_TIPS</t>
+  </si>
+  <si>
     <t>VirusSlower</t>
   </si>
   <si>
     <t>减速病毒</t>
   </si>
   <si>
+    <t>Virus_Slower_Name</t>
+  </si>
+  <si>
+    <t>Virus_Slower_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Virus_Slower_TIPS</t>
+  </si>
+  <si>
     <t>减速效果</t>
   </si>
   <si>
@@ -177,6 +249,15 @@
     <t>膨胀病毒</t>
   </si>
   <si>
+    <t>Virus_Expand_Name</t>
+  </si>
+  <si>
+    <t>Virus_Expand_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Virus_Expand_TIPS</t>
+  </si>
+  <si>
     <t>膨胀倍率</t>
   </si>
   <si>
@@ -186,12 +267,30 @@
     <t>飞镖病毒</t>
   </si>
   <si>
+    <t>Virus_Dart_Name</t>
+  </si>
+  <si>
+    <t>Virus_Dart_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Virus_Dart_TIPS</t>
+  </si>
+  <si>
     <t>VirusRecover</t>
   </si>
   <si>
     <t>再生病毒</t>
   </si>
   <si>
+    <t>Virus_Recover_Name</t>
+  </si>
+  <si>
+    <t>Virus_Recover_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Virus_Recover_TIPS</t>
+  </si>
+  <si>
     <t>恢复效果</t>
   </si>
   <si>
@@ -201,12 +300,30 @@
     <t>防御病毒</t>
   </si>
   <si>
+    <t>Virus_Defense_Name</t>
+  </si>
+  <si>
+    <t>Virus_Defense_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Virus_Defense_TIPS</t>
+  </si>
+  <si>
     <t>VirusVampire</t>
   </si>
   <si>
     <t>吸血病毒</t>
   </si>
   <si>
+    <t>Virus_Vampire_Name</t>
+  </si>
+  <si>
+    <t>Virus_Vampire_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Virus_Vampire_TIPS</t>
+  </si>
+  <si>
     <t>每秒吸血百分比</t>
   </si>
   <si>
@@ -214,6 +331,15 @@
   </si>
   <si>
     <t>碰撞病毒</t>
+  </si>
+  <si>
+    <t>Virus_Collider_Name</t>
+  </si>
+  <si>
+    <t>Virus_Collider_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Virus_Collider_TIPS</t>
   </si>
 </sst>
 </file>
@@ -221,10 +347,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -248,6 +374,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -256,39 +466,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,9 +490,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,81 +510,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -394,19 +520,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,163 +700,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,6 +711,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -603,24 +762,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -632,30 +773,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,151 +802,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -839,54 +965,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1182,27 +1308,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="23.6634615384615" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="29.1634615384615" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.3653846153846" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.4423076923077" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1634615384615" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1634615384615" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.3365384615385" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.3666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.4416666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.3333333333333" style="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1634615384615" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1666666666667" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
@@ -1334,13 +1460,13 @@
         <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1348,19 +1474,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -1369,13 +1495,13 @@
         <v>2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1383,40 +1509,40 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="1">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="J7" s="1">
         <v>300</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L7" s="1">
         <v>350</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1424,19 +1550,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1444,25 +1570,25 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H9" s="1">
         <v>1.5</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1470,19 +1596,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1">
         <v>5</v>
@@ -1491,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1499,19 +1625,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1519,37 +1645,37 @@
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="H12" s="1">
         <v>0.2</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="J12" s="1">
         <v>300</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L12" s="1">
         <v>350</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1557,19 +1683,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="G13" s="1">
         <v>3</v>
@@ -1578,13 +1704,13 @@
         <v>1.5</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="J13" s="1">
         <v>0.5</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1592,19 +1718,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1612,28 +1738,28 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H15" s="1">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1641,19 +1767,19 @@
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G16" s="1">
         <v>5</v>
@@ -1662,7 +1788,7 @@
         <v>3</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1670,37 +1796,37 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="H17" s="1">
         <v>0.2</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="J17" s="1">
         <v>200</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L17" s="1">
         <v>300</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1708,19 +1834,19 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1731,7 +1857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1739,7 +1865,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1747,7 +1873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1755,7 +1881,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/DestroyViruses/Assets/Tables/TableVirus.xlsx
+++ b/DestroyViruses/Assets/Tables/TableVirus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
   <si>
     <t>id</t>
   </si>
@@ -33,6 +33,9 @@
     <t>tipsID</t>
   </si>
   <si>
+    <t>collectable</t>
+  </si>
+  <si>
     <t>skillCD</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
   </si>
   <si>
     <t>多语言</t>
+  </si>
+  <si>
+    <t>可收集状态,0不可收集，1可收集</t>
   </si>
   <si>
     <t>skill触发间隔</t>
@@ -348,8 +354,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -368,7 +374,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,17 +487,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,21 +496,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,89 +516,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -520,187 +526,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,15 +717,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -742,22 +739,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,6 +755,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,11 +803,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,10 +823,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -829,133 +835,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1310,10 +1316,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G5" sqref="G5:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1323,17 +1329,17 @@
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="29.1666666666667" style="1" customWidth="1"/>
     <col min="5" max="5" width="36.3666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.4416666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1666666666667" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.3333333333333" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1666666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="6" max="7" width="30.4416666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1666666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.3333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.1666666666667" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1355,498 +1361,552 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
         <v>5</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>2</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="J6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>38</v>
+      <c r="L6" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <v>0.1</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>0.02</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="J7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="1">
         <v>300</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="L7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="1">
         <v>350</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>46</v>
+      <c r="N7" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="1">
+        <v>58</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
         <v>1.5</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>57</v>
+      <c r="J9" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
         <v>5</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>63</v>
+      <c r="I10" s="1">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="1">
+        <v>75</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
         <v>0.2</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="1">
+      <c r="J12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="1">
         <v>300</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="L12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M12" s="1">
         <v>350</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>46</v>
+      <c r="N12" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
         <v>3</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>1.5</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J13" s="1">
+      <c r="J13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" s="1">
         <v>0.5</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>38</v>
+      <c r="L13" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
         <v>0.1</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>0.005</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>91</v>
+      <c r="J15" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
         <v>5</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>3</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>38</v>
+      <c r="J16" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" s="1">
+        <v>103</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
         <v>0.2</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J17" s="1">
+      <c r="J17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="1">
         <v>200</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L17" s="1">
+      <c r="L17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="1">
         <v>300</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>46</v>
+      <c r="N17" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DestroyViruses/Assets/Tables/TableVirus.xlsx
+++ b/DestroyViruses/Assets/Tables/TableVirus.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="11730"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,8 +354,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -388,7 +388,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,75 +487,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -479,16 +495,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,14 +516,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -526,187 +526,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,6 +744,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -759,20 +768,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,6 +800,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -802,31 +817,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -835,133 +835,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1318,8 +1318,8 @@
   <sheetPr/>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1551,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
         <v>0.02</v>

--- a/DestroyViruses/Assets/Tables/TableVirus.xlsx
+++ b/DestroyViruses/Assets/Tables/TableVirus.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,8 +354,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -388,21 +388,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,6 +441,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -424,40 +457,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,6 +487,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -478,44 +516,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -526,187 +526,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,15 +744,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -768,17 +759,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,15 +794,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -817,16 +802,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -835,133 +835,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1318,8 +1318,8 @@
   <sheetPr/>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1551,7 +1551,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I7" s="1">
         <v>0.02</v>
